--- a/model/Outputs/8. Fixed RE/With PV/Output Files/0/Output_6_27.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/0/Output_6_27.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500734</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500734</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177834</v>
+        <v>3940022.790763975</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177834</v>
+        <v>3940022.790763975</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1647583070.161899</v>
+        <v>62581087.82270408</v>
       </c>
     </row>
   </sheetData>
@@ -955,7 +955,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T5" t="n">
-        <v>559.576574119003</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U5" t="n">
         <v>648.751427201877</v>
@@ -970,7 +970,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y5" t="n">
-        <v>511.3174326828064</v>
+        <v>509.9290883898282</v>
       </c>
     </row>
     <row r="6">
@@ -1393,7 +1393,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H11" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T11" t="n">
         <v>560.964918411981</v>
@@ -1502,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S12" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T12" t="n">
         <v>392.6911708778912</v>
@@ -1569,10 +1569,10 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O13" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T14" t="n">
         <v>560.964918411981</v>
@@ -1678,7 +1678,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X14" t="n">
-        <v>590.8934891676897</v>
+        <v>592.2818334606677</v>
       </c>
       <c r="Y14" t="n">
         <v>511.3174326828064</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S15" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T15" t="n">
         <v>392.6911708778912</v>
@@ -1976,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S18" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T18" t="n">
         <v>392.6911708778912</v>
@@ -2092,7 +2092,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D20" t="n">
-        <v>408.9508114468717</v>
+        <v>410.3391557398498</v>
       </c>
       <c r="E20" t="n">
         <v>404.3632896068686</v>
@@ -2104,7 +2104,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2213,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S21" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T21" t="n">
         <v>392.6911708778912</v>
@@ -2277,13 +2277,13 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M22" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2338,10 +2338,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G23" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H23" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E26" t="n">
-        <v>402.9749453138904</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F26" t="n">
         <v>404.8896287080119</v>
@@ -2620,7 +2620,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V26" t="n">
-        <v>629.8510241668239</v>
+        <v>628.4626798738458</v>
       </c>
       <c r="W26" t="n">
         <v>638.3734759809475</v>
@@ -2687,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S27" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T27" t="n">
         <v>392.6911708778912</v>
@@ -2751,10 +2751,10 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N28" t="n">
-        <v>133.3568653036801</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E29" t="n">
-        <v>402.9749453138904</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F29" t="n">
         <v>404.8896287080119</v>
@@ -2854,7 +2854,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U29" t="n">
-        <v>648.751427201877</v>
+        <v>647.3630829088994</v>
       </c>
       <c r="V29" t="n">
         <v>629.8510241668239</v>
@@ -3037,7 +3037,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C32" t="n">
-        <v>448.0862339500159</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D32" t="n">
         <v>410.3391557398498</v>
@@ -3088,7 +3088,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T32" t="n">
-        <v>560.964918411981</v>
+        <v>559.576574119003</v>
       </c>
       <c r="U32" t="n">
         <v>648.751427201877</v>
@@ -3286,7 +3286,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G35" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H35" t="n">
         <v>347.8590406130752</v>
@@ -3331,7 +3331,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V35" t="n">
-        <v>629.8510241668239</v>
+        <v>628.4626798738458</v>
       </c>
       <c r="W35" t="n">
         <v>638.3734759809475</v>
@@ -3462,10 +3462,10 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N37" t="n">
-        <v>133.3568653036801</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H38" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U38" t="n">
-        <v>648.751427201877</v>
+        <v>647.3630829088994</v>
       </c>
       <c r="V38" t="n">
         <v>629.8510241668239</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>165.2127885434264</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -3872,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S42" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T42" t="n">
         <v>392.6911708778912</v>
@@ -3985,10 +3985,10 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C44" t="n">
-        <v>449.4745782429939</v>
+        <v>448.0862339500159</v>
       </c>
       <c r="D44" t="n">
-        <v>408.9508114468717</v>
+        <v>410.3391557398498</v>
       </c>
       <c r="E44" t="n">
         <v>404.3632896068686</v>
@@ -4354,7 +4354,7 @@
         <v>4214.390158686993</v>
       </c>
       <c r="P2" t="n">
-        <v>5912.12964013179</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q2" t="n">
         <v>6931.116362236997</v>
@@ -4509,7 +4509,7 @@
         <v>307.8416045893196</v>
       </c>
       <c r="O4" t="n">
-        <v>438.463966970767</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="P4" t="n">
         <v>457.4949902104935</v>
@@ -4588,10 +4588,10 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O5" t="n">
-        <v>5048.61527574625</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P5" t="n">
-        <v>5884.482603843663</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q5" t="n">
         <v>6931.116362236997</v>
@@ -4603,19 +4603,19 @@
         <v>6683.344625183177</v>
       </c>
       <c r="T5" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U5" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V5" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W5" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X5" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y5" t="n">
         <v>3067.029708403252</v>
@@ -4746,7 +4746,7 @@
         <v>307.8416045893196</v>
       </c>
       <c r="O7" t="n">
-        <v>438.463966970767</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="P7" t="n">
         <v>457.4949902104935</v>
@@ -4816,10 +4816,10 @@
         <v>1339.420289043491</v>
       </c>
       <c r="L8" t="n">
-        <v>3071.357825473565</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M8" t="n">
-        <v>3553.537024987068</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N8" t="n">
         <v>4118.58008885974</v>
@@ -4980,7 +4980,7 @@
         <v>307.8416045893196</v>
       </c>
       <c r="N10" t="n">
-        <v>307.8416045893196</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="O10" t="n">
         <v>426.6131206966359</v>
@@ -5023,22 +5023,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C11" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D11" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E11" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F11" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G11" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H11" t="n">
         <v>140.96</v>
@@ -5062,7 +5062,7 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O11" t="n">
-        <v>5028.734971800483</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P11" t="n">
         <v>5864.602299897897</v>
@@ -5074,25 +5074,25 @@
         <v>7048</v>
       </c>
       <c r="S11" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T11" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U11" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V11" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W11" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X11" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y11" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="12">
@@ -5150,7 +5150,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R12" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S12" t="n">
         <v>5159.222422432123</v>
@@ -5217,7 +5217,7 @@
         <v>166.9289267754419</v>
       </c>
       <c r="N13" t="n">
-        <v>166.9289267754419</v>
+        <v>140.96</v>
       </c>
       <c r="O13" t="n">
         <v>140.96</v>
@@ -5302,7 +5302,7 @@
         <v>4214.390158686993</v>
       </c>
       <c r="P14" t="n">
-        <v>5864.602299897897</v>
+        <v>5912.12964013179</v>
       </c>
       <c r="Q14" t="n">
         <v>6931.116362236997</v>
@@ -5311,19 +5311,19 @@
         <v>7048</v>
       </c>
       <c r="S14" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T14" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U14" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V14" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W14" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X14" t="n">
         <v>3583.51196363841</v>
@@ -5387,7 +5387,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R15" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S15" t="n">
         <v>5159.222422432123</v>
@@ -5542,7 +5542,7 @@
         <v>5912.12964013179</v>
       </c>
       <c r="Q17" t="n">
-        <v>6931.116362236997</v>
+        <v>6978.643702470889</v>
       </c>
       <c r="R17" t="n">
         <v>7048</v>
@@ -5624,7 +5624,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R18" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S18" t="n">
         <v>5159.222422432123</v>
@@ -5740,16 +5740,16 @@
         <v>2124.744622048154</v>
       </c>
       <c r="D20" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E20" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F20" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G20" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H20" t="n">
         <v>140.96</v>
@@ -5761,25 +5761,25 @@
         <v>599.7771454756521</v>
       </c>
       <c r="K20" t="n">
-        <v>1443.861463236568</v>
+        <v>2049.12665539136</v>
       </c>
       <c r="L20" t="n">
-        <v>3188.241463236568</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M20" t="n">
-        <v>3670.420662750071</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N20" t="n">
-        <v>4235.463726622743</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O20" t="n">
-        <v>5145.618609563487</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P20" t="n">
-        <v>5981.4859376609</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q20" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R20" t="n">
         <v>7048</v>
@@ -5861,7 +5861,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R21" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S21" t="n">
         <v>5159.222422432123</v>
@@ -5925,10 +5925,10 @@
         <v>275.6639043471516</v>
       </c>
       <c r="M22" t="n">
-        <v>166.9289267754419</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N22" t="n">
-        <v>140.96</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="O22" t="n">
         <v>140.96</v>
@@ -5986,7 +5986,7 @@
         <v>892.8334361342853</v>
       </c>
       <c r="G23" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H23" t="n">
         <v>140.96</v>
@@ -6208,13 +6208,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C26" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D26" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E26" t="n">
         <v>1303.215227044376</v>
@@ -6247,10 +6247,10 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O26" t="n">
-        <v>5048.61527574625</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P26" t="n">
-        <v>5884.482603843663</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q26" t="n">
         <v>6931.116362236997</v>
@@ -6268,16 +6268,16 @@
         <v>5461.408922542916</v>
       </c>
       <c r="V26" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W26" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X26" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y26" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="27">
@@ -6335,7 +6335,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R27" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S27" t="n">
         <v>5159.222422432123</v>
@@ -6399,7 +6399,7 @@
         <v>275.6639043471516</v>
       </c>
       <c r="M28" t="n">
-        <v>275.6639043471516</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N28" t="n">
         <v>140.96</v>
@@ -6445,13 +6445,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C29" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D29" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E29" t="n">
         <v>1303.215227044376</v>
@@ -6484,10 +6484,10 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O29" t="n">
-        <v>5028.734971800483</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P29" t="n">
-        <v>5864.602299897897</v>
+        <v>5912.12964013179</v>
       </c>
       <c r="Q29" t="n">
         <v>6931.116362236997</v>
@@ -6502,19 +6502,19 @@
         <v>6116.713394464005</v>
       </c>
       <c r="U29" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V29" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W29" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X29" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y29" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="30">
@@ -6682,7 +6682,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C32" t="n">
         <v>2126.146990020859</v>
@@ -6721,10 +6721,10 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O32" t="n">
-        <v>5048.61527574625</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P32" t="n">
-        <v>5884.482603843663</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q32" t="n">
         <v>6931.116362236997</v>
@@ -6736,22 +6736,22 @@
         <v>6683.344625183177</v>
       </c>
       <c r="T32" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U32" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V32" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W32" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X32" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y32" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="33">
@@ -6919,19 +6919,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C35" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D35" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E35" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F35" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G35" t="n">
         <v>492.3327682960356</v>
@@ -6961,7 +6961,7 @@
         <v>4214.390158686993</v>
       </c>
       <c r="P35" t="n">
-        <v>5864.602299897897</v>
+        <v>5912.12964013179</v>
       </c>
       <c r="Q35" t="n">
         <v>6931.116362236997</v>
@@ -6979,16 +6979,16 @@
         <v>5461.408922542916</v>
       </c>
       <c r="V35" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W35" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X35" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y35" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="36">
@@ -7110,7 +7110,7 @@
         <v>275.6639043471516</v>
       </c>
       <c r="M37" t="n">
-        <v>275.6639043471516</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N37" t="n">
         <v>140.96</v>
@@ -7156,22 +7156,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C38" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D38" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E38" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F38" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G38" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H38" t="n">
         <v>140.96</v>
@@ -7198,7 +7198,7 @@
         <v>4214.390158686993</v>
       </c>
       <c r="P38" t="n">
-        <v>5864.602299897897</v>
+        <v>5912.12964013179</v>
       </c>
       <c r="Q38" t="n">
         <v>6931.116362236997</v>
@@ -7213,19 +7213,19 @@
         <v>6116.713394464005</v>
       </c>
       <c r="U38" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V38" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W38" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X38" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y38" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="39">
@@ -7344,13 +7344,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L40" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M40" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N40" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="O40" t="n">
         <v>140.96</v>
@@ -7520,7 +7520,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R42" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S42" t="n">
         <v>5159.222422432123</v>
@@ -7633,7 +7633,7 @@
         <v>2578.759347546128</v>
       </c>
       <c r="C44" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D44" t="n">
         <v>1711.662994324041</v>
@@ -7663,16 +7663,16 @@
         <v>2257.013012360075</v>
       </c>
       <c r="M44" t="n">
-        <v>3553.537024987068</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N44" t="n">
-        <v>4118.58008885974</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O44" t="n">
-        <v>5028.734971800483</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P44" t="n">
-        <v>5864.602299897897</v>
+        <v>5912.12964013179</v>
       </c>
       <c r="Q44" t="n">
         <v>6931.116362236997</v>
@@ -8002,10 +8002,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>870.5779326741233</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q2" t="n">
-        <v>567.8446588919048</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R2" t="n">
         <v>294.54111633436</v>
@@ -8236,13 +8236,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>842.6516333931879</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q5" t="n">
-        <v>595.7709581728407</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R5" t="n">
         <v>294.54111633436</v>
@@ -8464,13 +8464,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>822.5705182964548</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>822.5705182964546</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>822.5705182964546</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q11" t="n">
         <v>615.8520732695737</v>
@@ -8950,10 +8950,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>822.5705182964543</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q14" t="n">
-        <v>615.8520732695737</v>
+        <v>567.8446588919048</v>
       </c>
       <c r="R14" t="n">
         <v>294.54111633436</v>
@@ -9190,10 +9190,10 @@
         <v>870.5779326741233</v>
       </c>
       <c r="Q17" t="n">
-        <v>567.8446588919048</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R17" t="n">
-        <v>294.54111633436</v>
+        <v>246.5337019566904</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9409,10 +9409,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>105.4961355485625</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L20" t="n">
-        <v>835.138663316583</v>
+        <v>105.6954007733557</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9430,7 +9430,7 @@
         <v>615.8520732695737</v>
       </c>
       <c r="R20" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9895,13 +9895,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>842.6516333931879</v>
+        <v>822.5705182964546</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>595.7709581728407</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R26" t="n">
         <v>294.54111633436</v>
@@ -10132,13 +10132,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>822.5705182964546</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q29" t="n">
-        <v>615.8520732695737</v>
+        <v>567.8446588919048</v>
       </c>
       <c r="R29" t="n">
         <v>294.54111633436</v>
@@ -10369,13 +10369,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>842.6516333931879</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q32" t="n">
-        <v>595.7709581728407</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R32" t="n">
         <v>294.54111633436</v>
@@ -10609,10 +10609,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>822.5705182964543</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q35" t="n">
-        <v>615.8520732695737</v>
+        <v>567.8446588919048</v>
       </c>
       <c r="R35" t="n">
         <v>294.54111633436</v>
@@ -10846,10 +10846,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>822.5705182964543</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q38" t="n">
-        <v>615.8520732695737</v>
+        <v>567.8446588919048</v>
       </c>
       <c r="R38" t="n">
         <v>294.54111633436</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>822.5705182964547</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11320,10 +11320,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q44" t="n">
-        <v>615.8520732695737</v>
+        <v>567.8446588919048</v>
       </c>
       <c r="R44" t="n">
         <v>294.54111633436</v>
@@ -23281,7 +23281,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23390,10 +23390,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23457,10 +23457,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O13" t="n">
-        <v>242.3489823090323</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P13" t="n">
         <v>368.8061924102448</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23566,7 +23566,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23864,10 +23864,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S18" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.388344292978047</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23992,7 +23992,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24101,10 +24101,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S21" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24165,13 +24165,13 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N22" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O22" t="n">
-        <v>268.0582198167198</v>
+        <v>134.7013545130397</v>
       </c>
       <c r="P22" t="n">
         <v>368.8061924102448</v>
@@ -24226,10 +24226,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H23" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.388344292978104</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24575,10 +24575,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S27" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24639,10 +24639,10 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>34.66406242702104</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O28" t="n">
         <v>268.0582198167198</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.388344292977649</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24925,58 +24925,58 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
         <v>1.38834429297799</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.388344292978104</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25350,10 +25350,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>34.66406242702104</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O37" t="n">
         <v>268.0582198167198</v>
@@ -25414,7 +25414,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.388344292977649</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25584,7 +25584,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>107.6476277959926</v>
@@ -25593,7 +25593,7 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O40" t="n">
-        <v>102.8454312732934</v>
+        <v>134.7013545130397</v>
       </c>
       <c r="P40" t="n">
         <v>368.8061924102448</v>
@@ -25760,10 +25760,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S42" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25873,10 +25873,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="D44" t="n">
-        <v>1.388344292978047</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16812.76883547376</v>
+        <v>1391548.529551329</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33359.18696190734</v>
+        <v>2745378.847908867</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49905.60508834091</v>
+        <v>4099209.166266407</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>68738.20278394973</v>
+        <v>5311855.334621574</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>87570.80047955856</v>
+        <v>6524501.502976739</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>106403.3981751674</v>
+        <v>7737147.671331896</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>125235.9958707762</v>
+        <v>8949793.839687051</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>144068.593566385</v>
+        <v>10162440.00804221</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>162901.1912619938</v>
+        <v>11375086.17639736</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>181733.7889576026</v>
+        <v>12587732.34475252</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>200566.3866532114</v>
+        <v>13800378.51310767</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>219398.9843488202</v>
+        <v>15013024.68146284</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>238231.5820444292</v>
+        <v>16225670.84981801</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>257064.1797400383</v>
+        <v>17438317.01817319</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>275896.7774356473</v>
+        <v>18650963.18652837</v>
       </c>
     </row>
   </sheetData>
@@ -26319,16 +26319,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>850079.5022245016</v>
+        <v>850079.5022245015</v>
       </c>
       <c r="C2" t="n">
-        <v>850079.5022245017</v>
+        <v>850079.5022245015</v>
       </c>
       <c r="D2" t="n">
-        <v>850079.5022245013</v>
+        <v>850079.5022245015</v>
       </c>
       <c r="E2" t="n">
-        <v>761428.9894323127</v>
+        <v>761428.9894323122</v>
       </c>
       <c r="F2" t="n">
         <v>761428.9894323124</v>
@@ -26337,31 +26337,31 @@
         <v>761428.9894323123</v>
       </c>
       <c r="H2" t="n">
-        <v>761428.9894323123</v>
+        <v>761428.9894323121</v>
       </c>
       <c r="I2" t="n">
         <v>761428.9894323123</v>
       </c>
       <c r="J2" t="n">
-        <v>761428.9894323121</v>
+        <v>761428.9894323124</v>
       </c>
       <c r="K2" t="n">
-        <v>761428.9894323121</v>
+        <v>761428.9894323125</v>
       </c>
       <c r="L2" t="n">
-        <v>761428.9894323122</v>
+        <v>761428.9894323123</v>
       </c>
       <c r="M2" t="n">
-        <v>761428.9894323121</v>
+        <v>761428.9894323124</v>
       </c>
       <c r="N2" t="n">
-        <v>761428.9894323121</v>
+        <v>761428.9894323125</v>
       </c>
       <c r="O2" t="n">
+        <v>761428.9894323124</v>
+      </c>
+      <c r="P2" t="n">
         <v>761428.9894323125</v>
-      </c>
-      <c r="P2" t="n">
-        <v>761428.9894323124</v>
       </c>
     </row>
     <row r="3">
@@ -26438,7 +26438,7 @@
         <v>38928.93672769591</v>
       </c>
       <c r="G4" t="n">
-        <v>38928.93672769591</v>
+        <v>38928.9367276959</v>
       </c>
       <c r="H4" t="n">
         <v>38928.93672769592</v>
@@ -26527,16 +26527,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1481447.775726326</v>
+        <v>-1481447.775726327</v>
       </c>
       <c r="C6" t="n">
-        <v>563553.1753281547</v>
+        <v>563553.1753281545</v>
       </c>
       <c r="D6" t="n">
-        <v>563855.5359980874</v>
+        <v>563855.5359980875</v>
       </c>
       <c r="E6" t="n">
-        <v>583520.6527046168</v>
+        <v>583520.6527046163</v>
       </c>
       <c r="F6" t="n">
         <v>583520.6527046165</v>
@@ -26545,31 +26545,31 @@
         <v>583520.6527046164</v>
       </c>
       <c r="H6" t="n">
-        <v>583520.6527046164</v>
+        <v>583520.6527046162</v>
       </c>
       <c r="I6" t="n">
         <v>583520.6527046164</v>
       </c>
       <c r="J6" t="n">
-        <v>-36703.34729538381</v>
+        <v>-36703.34729538346</v>
       </c>
       <c r="K6" t="n">
-        <v>583520.6527046162</v>
+        <v>583520.6527046167</v>
       </c>
       <c r="L6" t="n">
-        <v>583520.6527046163</v>
+        <v>583520.6527046164</v>
       </c>
       <c r="M6" t="n">
-        <v>583520.6527046162</v>
+        <v>583520.6527046165</v>
       </c>
       <c r="N6" t="n">
-        <v>583520.6527046162</v>
+        <v>583520.6527046167</v>
       </c>
       <c r="O6" t="n">
+        <v>583520.6527046165</v>
+      </c>
+      <c r="P6" t="n">
         <v>583520.6527046167</v>
-      </c>
-      <c r="P6" t="n">
-        <v>583520.6527046165</v>
       </c>
     </row>
   </sheetData>
@@ -27705,10 +27705,10 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O4" t="n">
+        <v>388.0294482079483</v>
+      </c>
+      <c r="P4" t="n">
         <v>400</v>
-      </c>
-      <c r="P4" t="n">
-        <v>388.0294482079483</v>
       </c>
       <c r="Q4" t="n">
         <v>400</v>
@@ -27799,7 +27799,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27814,7 +27814,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1.388344292978161</v>
       </c>
     </row>
     <row r="6">
@@ -27942,10 +27942,10 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O7" t="n">
+        <v>388.0294482079483</v>
+      </c>
+      <c r="P7" t="n">
         <v>400</v>
-      </c>
-      <c r="P7" t="n">
-        <v>388.0294482079483</v>
       </c>
       <c r="Q7" t="n">
         <v>400</v>
@@ -28176,10 +28176,10 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N10" t="n">
-        <v>168.0209277307011</v>
+        <v>287.9921561219296</v>
       </c>
       <c r="O10" t="n">
-        <v>388.0294482079483</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P10" t="n">
         <v>400</v>
@@ -34846,10 +34846,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P2" t="n">
-        <v>1714.888365095753</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q2" t="n">
-        <v>1029.279517277987</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R2" t="n">
         <v>118.0642805686905</v>
@@ -35001,10 +35001,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>131.9417801832802</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="P4" t="n">
-        <v>19.22325579770347</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35080,13 +35080,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O5" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P5" t="n">
-        <v>844.3104324216301</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q5" t="n">
-        <v>1057.205816558923</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R5" t="n">
         <v>118.0642805686905</v>
@@ -35238,10 +35238,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>131.9417801832802</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="P7" t="n">
-        <v>19.22325579770347</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35308,13 +35308,13 @@
         <v>747.1142864321608</v>
       </c>
       <c r="L8" t="n">
-        <v>1749.431854979872</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N8" t="n">
-        <v>570.7505695683558</v>
+        <v>1393.32108786481</v>
       </c>
       <c r="O8" t="n">
         <v>919.3483666068121</v>
@@ -35472,10 +35472,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="O10" t="n">
-        <v>119.9712283912285</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>31.19380758975518</v>
@@ -35554,10 +35554,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O11" t="n">
-        <v>1741.918884903267</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P11" t="n">
-        <v>844.3104324216301</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q11" t="n">
         <v>1077.286931655656</v>
@@ -35794,10 +35794,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P14" t="n">
-        <v>1666.880950718084</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q14" t="n">
-        <v>1077.286931655656</v>
+        <v>1029.279517277987</v>
       </c>
       <c r="R14" t="n">
         <v>118.0642805686905</v>
@@ -36034,10 +36034,10 @@
         <v>1714.888365095753</v>
       </c>
       <c r="Q17" t="n">
-        <v>1029.279517277987</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R17" t="n">
-        <v>118.0642805686905</v>
+        <v>70.05686619102084</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36253,10 +36253,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K20" t="n">
-        <v>852.6104219807233</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L20" t="n">
-        <v>1762</v>
+        <v>1032.556737456773</v>
       </c>
       <c r="M20" t="n">
         <v>487.0496964782857</v>
@@ -36274,7 +36274,7 @@
         <v>1077.286931655656</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36739,13 +36739,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O26" t="n">
-        <v>1762</v>
+        <v>1741.918884903267</v>
       </c>
       <c r="P26" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q26" t="n">
-        <v>1057.205816558923</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R26" t="n">
         <v>118.0642805686905</v>
@@ -36976,13 +36976,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O29" t="n">
-        <v>1741.918884903267</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P29" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q29" t="n">
-        <v>1077.286931655656</v>
+        <v>1029.279517277987</v>
       </c>
       <c r="R29" t="n">
         <v>118.0642805686905</v>
@@ -37213,13 +37213,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O32" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P32" t="n">
-        <v>844.3104324216301</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q32" t="n">
-        <v>1057.205816558923</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R32" t="n">
         <v>118.0642805686905</v>
@@ -37453,10 +37453,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P35" t="n">
-        <v>1666.880950718084</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q35" t="n">
-        <v>1077.286931655656</v>
+        <v>1029.279517277987</v>
       </c>
       <c r="R35" t="n">
         <v>118.0642805686905</v>
@@ -37690,10 +37690,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
-        <v>1666.880950718084</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q38" t="n">
-        <v>1077.286931655656</v>
+        <v>1029.279517277987</v>
       </c>
       <c r="R38" t="n">
         <v>118.0642805686905</v>
@@ -38155,7 +38155,7 @@
         <v>926.8613366834174</v>
       </c>
       <c r="M44" t="n">
-        <v>1309.62021477474</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N44" t="n">
         <v>570.7505695683558</v>
@@ -38164,10 +38164,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P44" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q44" t="n">
-        <v>1077.286931655656</v>
+        <v>1029.279517277987</v>
       </c>
       <c r="R44" t="n">
         <v>118.0642805686905</v>
